--- a/04_memo/map15.xlsx
+++ b/04_memo/map15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D19C3-ECC0-4973-84E3-32485DF6FF0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCF7713-78E9-4B75-80AF-366B197D0285}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S11" s="1">
         <v>1</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>

--- a/04_memo/map15.xlsx
+++ b/04_memo/map15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCF7713-78E9-4B75-80AF-366B197D0285}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4716DC85-8072-432B-BE4A-619CF076F250}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
